--- a/Cabai/Cabai.xlsx
+++ b/Cabai/Cabai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Visualisasi-Data_Riset\Cabai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BigProject\Cabai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561D9568-A885-4EAA-B50C-C1D2929E1FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971DBB07-6D59-45BB-9E86-DD6B02C4464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Luas Panen Cabai" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
   <si>
     <t>Lokasi</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
   </si>
   <si>
     <t>Aceh</t>
@@ -192,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -229,19 +226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="10"/>
@@ -259,17 +243,6 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
@@ -300,53 +273,373 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -411,7 +704,9 @@
         <left style="thin">
           <color indexed="10"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
         <top style="thin">
           <color indexed="10"/>
         </top>
@@ -609,88 +904,10 @@
           <bgColor indexed="9"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="10"/>
         </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="thin">
           <color indexed="10"/>
         </right>
@@ -740,6 +957,62 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -805,7 +1078,9 @@
         <left style="thin">
           <color indexed="10"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
         <top style="thin">
           <color indexed="10"/>
         </top>
@@ -1003,47 +1278,6 @@
           <bgColor indexed="9"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="10"/>
@@ -1086,381 +1320,6 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
         <right style="thin">
           <color indexed="10"/>
         </right>
@@ -1530,31 +1389,8 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1566,24 +1402,26 @@
         <sz val="11"/>
         <color indexed="8"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="8"/>
           <bgColor indexed="9"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1667,51 +1505,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F8D1403-7508-497A-93E7-24297CF641C6}" name="Table2" displayName="Table2" ref="A1:H35" totalsRowShown="0" headerRowDxfId="19" dataDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:H35" xr:uid="{8F8D1403-7508-497A-93E7-24297CF641C6}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BD646E5E-A0A9-4162-96E2-996CCB2D9613}" name="Lokasi" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{9831ED2D-8D0A-46C4-A531-12070E2AB6F6}" name="2015" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{558CD7D5-6418-4C37-A90F-909C01931967}" name="2016" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{28D3BB1A-0806-495B-96DB-297CE5EA85D8}" name="2017" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{F7E42C80-1FA3-4ADC-A904-97C97DE81EB1}" name="2018" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{D915C90F-9C0C-4871-92E8-923CBF64B876}" name="2019" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{977AF5B8-27A6-4BA9-9238-6DCCCBCB2990}" name="2020" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{9E0DF093-E89C-43F0-B0E4-A632B781EDB6}" name="2021" dataDxfId="24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F8D1403-7508-497A-93E7-24297CF641C6}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <autoFilter ref="A1:G35" xr:uid="{8F8D1403-7508-497A-93E7-24297CF641C6}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BD646E5E-A0A9-4162-96E2-996CCB2D9613}" name="Lokasi" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{9831ED2D-8D0A-46C4-A531-12070E2AB6F6}" name="2015" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{558CD7D5-6418-4C37-A90F-909C01931967}" name="2016" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{28D3BB1A-0806-495B-96DB-297CE5EA85D8}" name="2017" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{F7E42C80-1FA3-4ADC-A904-97C97DE81EB1}" name="2018" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{D915C90F-9C0C-4871-92E8-923CBF64B876}" name="2019" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{977AF5B8-27A6-4BA9-9238-6DCCCBCB2990}" name="2020" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DE1E964-AA7B-45D4-83C4-8DA10B7EDA6B}" name="Table3" displayName="Table3" ref="A1:H35" totalsRowShown="0" headerRowDxfId="10" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="A1:H35" xr:uid="{0DE1E964-AA7B-45D4-83C4-8DA10B7EDA6B}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AD630EDC-2252-4273-88CF-4B314CA9F6B6}" name="Lokasi" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DE1E964-AA7B-45D4-83C4-8DA10B7EDA6B}" name="Table3" displayName="Table3" ref="A1:G35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:G35" xr:uid="{0DE1E964-AA7B-45D4-83C4-8DA10B7EDA6B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AD630EDC-2252-4273-88CF-4B314CA9F6B6}" name="Lokasi" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{F438B81D-7D5B-40CD-B3FF-2FA57682926A}" name="2015" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{C4931969-F885-48F5-98F8-3C65F4A311C5}" name="2016" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{F882F541-5735-4A65-8373-3ACFFACADA3A}" name="2017" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{79144B6E-9076-4FC9-A775-633FF3D42A04}" name="2018" dataDxfId="14"/>
     <tableColumn id="6" xr3:uid="{603D08BC-4E18-482F-867D-8F144EE84350}" name="2019" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{0BB81172-BFE6-49DB-A976-548207930153}" name="2020" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{1FC81391-F4A8-4640-9FFB-2744F80CA437}" name="2021" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0BEA1A-ACB2-4835-99E2-D97845930B87}" name="Table5" displayName="Table5" ref="A1:H34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <autoFilter ref="A1:H34" xr:uid="{0E0BEA1A-ACB2-4835-99E2-D97845930B87}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{728EA918-46D2-4F49-A3F6-4CF057EF1D15}" name="Lokasi" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{38A14088-3F3E-43AB-8352-E7D88E6F4A09}" name="2015" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{969F4F7A-83E3-4803-8316-7F924CAD41EB}" name="2016" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4857AD3B-17F9-4166-9EF1-028D56BF6AA4}" name="2017" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{27A84B0C-A3E1-4F4F-8123-EF249267743C}" name="2018" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4DF1AE58-1B98-490B-A526-169AC08ABD8B}" name="2019" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{3005D115-6F51-4A14-A91A-553A8EE23A1F}" name="2020" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{23A5D607-0E46-4022-8CD0-9BB02303CE6E}" name="2021" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0BEA1A-ACB2-4835-99E2-D97845930B87}" name="Table5" displayName="Table5" ref="A1:G34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G34" xr:uid="{0E0BEA1A-ACB2-4835-99E2-D97845930B87}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{728EA918-46D2-4F49-A3F6-4CF057EF1D15}" name="Lokasi" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{38A14088-3F3E-43AB-8352-E7D88E6F4A09}" name="2015" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{969F4F7A-83E3-4803-8316-7F924CAD41EB}" name="2016" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4857AD3B-17F9-4166-9EF1-028D56BF6AA4}" name="2017" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{27A84B0C-A3E1-4F4F-8123-EF249267743C}" name="2018" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4DF1AE58-1B98-490B-A526-169AC08ABD8B}" name="2019" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{3005D115-6F51-4A14-A91A-553A8EE23A1F}" name="2020" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2014,47 +1849,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showRuler="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="15" customWidth="1"/>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="1" max="1" width="45" style="12" customWidth="1"/>
+    <col min="2" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>4622</v>
@@ -2074,19 +1906,16 @@
       <c r="G2" s="5">
         <v>5743.46</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>15482</v>
@@ -2106,19 +1935,16 @@
       <c r="G3" s="5">
         <v>18522.53</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>7811</v>
@@ -2138,19 +1964,16 @@
       <c r="G4" s="5">
         <v>11931.25</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>11</v>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>1775</v>
@@ -2170,19 +1993,16 @@
       <c r="G5" s="5">
         <v>1993.44</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>3423</v>
@@ -2202,19 +2022,16 @@
       <c r="G6" s="5">
         <v>4374.51</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>4434</v>
@@ -2234,19 +2051,16 @@
       <c r="G7" s="5">
         <v>4202.82</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>6759</v>
@@ -2266,19 +2080,16 @@
       <c r="G8" s="5">
         <v>6509.7</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>15</v>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>4229</v>
@@ -2298,19 +2109,16 @@
       <c r="G9" s="5">
         <v>6041</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>16</v>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="4">
         <v>266</v>
@@ -2330,19 +2138,16 @@
       <c r="G10" s="5">
         <v>509.07</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>373</v>
@@ -2362,19 +2167,16 @@
       <c r="G11" s="5">
         <v>313.18</v>
       </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>41</v>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -2394,19 +2196,16 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>16469</v>
@@ -2426,19 +2225,16 @@
       <c r="G13" s="5">
         <v>18266.78</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>19</v>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>23109</v>
@@ -2458,19 +2254,16 @@
       <c r="G14" s="5">
         <v>22589.55</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="4">
         <v>2767</v>
@@ -2490,19 +2283,16 @@
       <c r="G15" s="5">
         <v>4587.3599999999997</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>21</v>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="4">
         <v>14435</v>
@@ -2522,19 +2312,16 @@
       <c r="G16" s="5">
         <v>12078.35</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>22</v>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="4">
         <v>679</v>
@@ -2554,19 +2341,16 @@
       <c r="G17" s="5">
         <v>717.25</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>1225</v>
@@ -2586,19 +2370,16 @@
       <c r="G18" s="5">
         <v>690.55</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>24</v>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>1466</v>
@@ -2618,19 +2399,16 @@
       <c r="G19" s="5">
         <v>2143.65</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>25</v>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="4">
         <v>1059</v>
@@ -2650,19 +2428,16 @@
       <c r="G20" s="5">
         <v>649.38</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>26</v>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="4">
         <v>710</v>
@@ -2682,19 +2457,16 @@
       <c r="G21" s="5">
         <v>785.8</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>27</v>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="4">
         <v>289</v>
@@ -2714,19 +2486,16 @@
       <c r="G22" s="5">
         <v>301.8</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>28</v>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="4">
         <v>930</v>
@@ -2746,19 +2515,16 @@
       <c r="G23" s="5">
         <v>1476</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>29</v>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="4">
         <v>849</v>
@@ -2778,19 +2544,16 @@
       <c r="G24" s="5">
         <v>710.26</v>
       </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>30</v>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -2810,19 +2573,16 @@
       <c r="G25" s="5">
         <v>262.60000000000002</v>
       </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>31</v>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="4">
         <v>659</v>
@@ -2842,19 +2602,16 @@
       <c r="G26" s="5">
         <v>1025.6500000000001</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>32</v>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="4">
         <v>844</v>
@@ -2874,19 +2631,16 @@
       <c r="G27" s="5">
         <v>973.7</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>33</v>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="4">
         <v>2859</v>
@@ -2906,19 +2660,16 @@
       <c r="G28" s="5">
         <v>2548.5500000000002</v>
       </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>34</v>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="4">
         <v>604</v>
@@ -2938,19 +2689,16 @@
       <c r="G29" s="5">
         <v>660.15</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>35</v>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="4">
         <v>69</v>
@@ -2970,19 +2718,16 @@
       <c r="G30" s="5">
         <v>75</v>
       </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>36</v>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="4">
         <v>210</v>
@@ -3002,19 +2747,16 @@
       <c r="G31" s="5">
         <v>1019</v>
       </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>37</v>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="4">
         <v>535</v>
@@ -3034,19 +2776,16 @@
       <c r="G32" s="5">
         <v>433.5</v>
       </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>38</v>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="4">
         <v>987</v>
@@ -3066,19 +2805,16 @@
       <c r="G33" s="5">
         <v>1025</v>
       </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>39</v>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="4">
         <v>265</v>
@@ -3098,49 +2834,43 @@
       <c r="G34" s="5">
         <v>269.25</v>
       </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="7">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6">
         <v>463</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>422</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>396</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>529</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>510.08</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>299.10000000000002</v>
       </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3152,289 +2882,288 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="9:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3446,9 +3175,8 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3460,9 +3188,8 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3474,9 +3201,8 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3488,9 +3214,8 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3502,9 +3227,8 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3516,9 +3240,8 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3530,9 +3253,8 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3544,9 +3266,8 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3558,9 +3279,8 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3572,9 +3292,8 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3586,9 +3305,8 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3600,9 +3318,8 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3614,9 +3331,8 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3628,9 +3344,8 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3642,9 +3357,8 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3656,9 +3370,8 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3670,9 +3383,8 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3684,9 +3396,8 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3698,9 +3409,8 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3712,9 +3422,8 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3726,9 +3435,8 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3740,9 +3448,8 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3754,9 +3461,8 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3768,9 +3474,8 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3782,9 +3487,8 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3796,9 +3500,8 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3810,9 +3513,8 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3824,9 +3526,8 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3838,9 +3539,8 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3852,9 +3552,8 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3866,9 +3565,8 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3880,9 +3578,8 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3894,9 +3591,8 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3908,9 +3604,8 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3922,9 +3617,8 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3936,9 +3630,8 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3950,9 +3643,8 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3964,9 +3656,8 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3978,9 +3669,8 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3992,9 +3682,8 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4006,9 +3695,8 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4020,9 +3708,8 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4034,9 +3721,8 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4048,9 +3734,8 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4062,9 +3747,8 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4076,9 +3760,8 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4090,9 +3773,8 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4104,9 +3786,8 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4118,9 +3799,8 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4132,9 +3812,8 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4146,9 +3825,8 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4160,9 +3838,8 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4174,9 +3851,8 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4188,9 +3864,8 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4202,9 +3877,8 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-    </row>
-    <row r="127" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4216,9 +3890,8 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-    </row>
-    <row r="128" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4230,9 +3903,8 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-    </row>
-    <row r="129" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4244,9 +3916,8 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-    </row>
-    <row r="130" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4258,9 +3929,8 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-    </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4272,9 +3942,8 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-    </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4286,9 +3955,8 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-    </row>
-    <row r="133" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4300,9 +3968,8 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-    </row>
-    <row r="134" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4314,9 +3981,8 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-    </row>
-    <row r="135" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4328,9 +3994,8 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-    </row>
-    <row r="136" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4342,9 +4007,8 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-    </row>
-    <row r="137" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4356,9 +4020,8 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-    </row>
-    <row r="138" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4370,9 +4033,8 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
-    </row>
-    <row r="139" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4384,9 +4046,8 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-    </row>
-    <row r="140" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4398,9 +4059,8 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-    </row>
-    <row r="141" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4412,9 +4072,8 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-    </row>
-    <row r="142" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4426,9 +4085,8 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
-    </row>
-    <row r="143" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4440,9 +4098,8 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-    </row>
-    <row r="144" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4454,9 +4111,8 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-    </row>
-    <row r="145" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4468,9 +4124,8 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-    </row>
-    <row r="146" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4482,9 +4137,8 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-    </row>
-    <row r="147" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4496,9 +4150,8 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-    </row>
-    <row r="148" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4510,9 +4163,8 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-    </row>
-    <row r="149" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4524,9 +4176,8 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
-    </row>
-    <row r="150" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4538,9 +4189,8 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-    </row>
-    <row r="151" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4552,9 +4202,8 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-    </row>
-    <row r="152" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4566,9 +4215,8 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-    </row>
-    <row r="153" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4580,9 +4228,8 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-    </row>
-    <row r="154" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4594,9 +4241,8 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-    </row>
-    <row r="155" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4608,9 +4254,8 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-    </row>
-    <row r="156" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4622,9 +4267,8 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-    </row>
-    <row r="157" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4636,9 +4280,8 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-    </row>
-    <row r="158" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4650,9 +4293,8 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-    </row>
-    <row r="159" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4664,9 +4306,8 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-    </row>
-    <row r="160" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4678,9 +4319,8 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-    </row>
-    <row r="161" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4692,9 +4332,8 @@
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-    </row>
-    <row r="162" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4706,9 +4345,8 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-    </row>
-    <row r="163" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4720,9 +4358,8 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-    </row>
-    <row r="164" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4734,9 +4371,8 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-    </row>
-    <row r="165" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4748,9 +4384,8 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-    </row>
-    <row r="166" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4762,9 +4397,8 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-    </row>
-    <row r="167" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4776,9 +4410,8 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-    </row>
-    <row r="168" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4790,9 +4423,8 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-    </row>
-    <row r="169" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4804,9 +4436,8 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-    </row>
-    <row r="170" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4818,9 +4449,8 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-    </row>
-    <row r="171" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4832,9 +4462,8 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-    </row>
-    <row r="172" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4846,9 +4475,8 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-    </row>
-    <row r="173" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4860,9 +4488,8 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-    </row>
-    <row r="174" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4874,9 +4501,8 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-    </row>
-    <row r="175" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4888,9 +4514,8 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-    </row>
-    <row r="176" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4902,9 +4527,8 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-    </row>
-    <row r="177" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4916,9 +4540,8 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-    </row>
-    <row r="178" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4930,9 +4553,8 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-    </row>
-    <row r="179" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4944,9 +4566,8 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-    </row>
-    <row r="180" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -4958,9 +4579,8 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-    </row>
-    <row r="181" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -4972,9 +4592,8 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-    </row>
-    <row r="182" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -4986,9 +4605,8 @@
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-    </row>
-    <row r="183" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5000,9 +4618,8 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-    </row>
-    <row r="184" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5014,9 +4631,8 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-    </row>
-    <row r="185" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5028,9 +4644,8 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-    </row>
-    <row r="186" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5042,9 +4657,8 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-    </row>
-    <row r="187" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5056,9 +4670,8 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-    </row>
-    <row r="188" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5070,9 +4683,8 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-    </row>
-    <row r="189" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5084,9 +4696,8 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-    </row>
-    <row r="190" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5098,9 +4709,8 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-    </row>
-    <row r="191" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5112,9 +4722,8 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
-    </row>
-    <row r="192" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5126,9 +4735,8 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-    </row>
-    <row r="193" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5140,9 +4748,8 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-    </row>
-    <row r="194" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5154,9 +4761,8 @@
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-    </row>
-    <row r="195" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5168,9 +4774,8 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-    </row>
-    <row r="196" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5182,9 +4787,8 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
-    </row>
-    <row r="197" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5196,9 +4800,8 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-    </row>
-    <row r="198" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5210,9 +4813,8 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-    </row>
-    <row r="199" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5224,9 +4826,8 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-    </row>
-    <row r="200" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5238,9 +4839,8 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-    </row>
-    <row r="201" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5252,9 +4852,8 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-    </row>
-    <row r="202" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5266,9 +4865,8 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-    </row>
-    <row r="203" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5280,9 +4878,8 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-    </row>
-    <row r="204" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5294,9 +4891,8 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-    </row>
-    <row r="205" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5308,9 +4904,8 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-    </row>
-    <row r="206" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5322,9 +4917,8 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-    </row>
-    <row r="207" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5336,9 +4930,8 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-    </row>
-    <row r="208" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5350,9 +4943,8 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-    </row>
-    <row r="209" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5364,9 +4956,8 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-    </row>
-    <row r="210" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5378,9 +4969,8 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-    </row>
-    <row r="211" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5392,9 +4982,8 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-    </row>
-    <row r="212" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5406,9 +4995,8 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-    </row>
-    <row r="213" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5420,9 +5008,8 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-    </row>
-    <row r="214" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5434,9 +5021,8 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-    </row>
-    <row r="215" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5448,9 +5034,8 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-    </row>
-    <row r="216" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5462,9 +5047,8 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-    </row>
-    <row r="217" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5476,9 +5060,8 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-    </row>
-    <row r="218" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5490,9 +5073,8 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-    </row>
-    <row r="219" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5504,9 +5086,8 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-    </row>
-    <row r="220" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5518,9 +5099,8 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-    </row>
-    <row r="221" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5532,9 +5112,8 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-    </row>
-    <row r="222" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5546,9 +5125,8 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -5560,9 +5138,8 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-    </row>
-    <row r="224" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -5574,9 +5151,8 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-    </row>
-    <row r="225" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -5588,9 +5164,8 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-    </row>
-    <row r="226" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -5602,9 +5177,8 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -5616,9 +5190,8 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-    </row>
-    <row r="228" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -5630,9 +5203,8 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-    </row>
-    <row r="229" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -5644,9 +5216,8 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-    </row>
-    <row r="230" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -5658,9 +5229,8 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-    </row>
-    <row r="231" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -5672,9 +5242,8 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-    </row>
-    <row r="232" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -5686,9 +5255,8 @@
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-    </row>
-    <row r="233" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -5700,9 +5268,8 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-    </row>
-    <row r="234" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -5714,9 +5281,8 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-    </row>
-    <row r="235" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -5728,9 +5294,8 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
-      <c r="N235" s="1"/>
-    </row>
-    <row r="236" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -5742,9 +5307,8 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
-      <c r="N236" s="1"/>
-    </row>
-    <row r="237" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -5756,9 +5320,8 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
-      <c r="N237" s="1"/>
-    </row>
-    <row r="238" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -5770,9 +5333,8 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
-      <c r="N238" s="1"/>
-    </row>
-    <row r="239" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -5784,9 +5346,8 @@
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
-      <c r="N239" s="1"/>
-    </row>
-    <row r="240" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -5798,9 +5359,8 @@
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
-      <c r="N240" s="1"/>
-    </row>
-    <row r="241" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -5812,9 +5372,8 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
-      <c r="N241" s="1"/>
-    </row>
-    <row r="242" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -5826,9 +5385,8 @@
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-    </row>
-    <row r="243" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -5840,9 +5398,8 @@
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-    </row>
-    <row r="244" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -5854,9 +5411,8 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
-      <c r="N244" s="1"/>
-    </row>
-    <row r="245" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -5868,7 +5424,6 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5883,49 +5438,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A251BE91-3524-4150-8BB4-D68096E271C6}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>52905.599999999999</v>
@@ -5945,13 +5496,10 @@
       <c r="G2" s="5">
         <v>73443.7</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>187833.1</v>
@@ -5971,13 +5519,10 @@
       <c r="G3" s="5">
         <v>193861.69</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>63401.7</v>
@@ -5997,13 +5542,10 @@
       <c r="G4" s="5">
         <v>133189.78</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>11</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>7393.1</v>
@@ -6023,13 +5565,10 @@
       <c r="G5" s="5">
         <v>16735.12</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>30342.400000000001</v>
@@ -6049,13 +5588,10 @@
       <c r="G6" s="5">
         <v>47133.08</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>10137.700000000001</v>
@@ -6075,13 +5611,10 @@
       <c r="G7" s="5">
         <v>28496.89</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>41367.199999999997</v>
@@ -6101,13 +5634,10 @@
       <c r="G8" s="5">
         <v>39637.74</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>15</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>31272.3</v>
@@ -6127,13 +5657,10 @@
       <c r="G9" s="5">
         <v>37986.559999999998</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>16</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="4">
         <v>2516</v>
@@ -6153,13 +5680,10 @@
       <c r="G10" s="5">
         <v>6954.61</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>2388.5</v>
@@ -6179,13 +5703,10 @@
       <c r="G11" s="5">
         <v>4181.5</v>
       </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>41</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -6205,13 +5726,10 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>240863.9</v>
@@ -6231,13 +5749,10 @@
       <c r="G13" s="5">
         <v>266066.63</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>19</v>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>168411.4</v>
@@ -6257,13 +5772,10 @@
       <c r="G14" s="5">
         <v>166259.5</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>20</v>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="4">
         <v>23387.9</v>
@@ -6283,13 +5795,10 @@
       <c r="G15" s="5">
         <v>44520.959999999999</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>21</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="4">
         <v>91134.5</v>
@@ -6309,13 +5818,10 @@
       <c r="G16" s="5">
         <v>99109.87</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>22</v>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="4">
         <v>6608.1</v>
@@ -6335,13 +5841,10 @@
       <c r="G17" s="5">
         <v>6946.92</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>14138.2</v>
@@ -6361,13 +5864,10 @@
       <c r="G18" s="5">
         <v>8049.05</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>24</v>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>11226.7</v>
@@ -6387,13 +5887,10 @@
       <c r="G19" s="5">
         <v>20092.39</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>25</v>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="4">
         <v>1278.3</v>
@@ -6413,13 +5910,10 @@
       <c r="G20" s="5">
         <v>3349.68</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>26</v>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="4">
         <v>2128.3000000000002</v>
@@ -6439,13 +5933,10 @@
       <c r="G21" s="5">
         <v>2021.59</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>27</v>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="4">
         <v>642.6</v>
@@ -6465,13 +5956,10 @@
       <c r="G22" s="5">
         <v>1379.91</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>28</v>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="4">
         <v>5902.9</v>
@@ -6491,13 +5979,10 @@
       <c r="G23" s="5">
         <v>12654.6</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>29</v>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="4">
         <v>5094.3</v>
@@ -6517,13 +6002,10 @@
       <c r="G24" s="5">
         <v>4290.0600000000004</v>
       </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>30</v>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
@@ -6543,13 +6025,10 @@
       <c r="G25" s="5">
         <v>1778.05</v>
       </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>31</v>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="4">
         <v>5746.6</v>
@@ -6569,13 +6048,10 @@
       <c r="G26" s="5">
         <v>8673.5400000000009</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>32</v>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="4">
         <v>5436.3</v>
@@ -6595,13 +6071,10 @@
       <c r="G27" s="5">
         <v>7238.4</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>33</v>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="4">
         <v>23781</v>
@@ -6621,13 +6094,10 @@
       <c r="G28" s="5">
         <v>17549.189999999999</v>
       </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>34</v>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="4">
         <v>1798.9</v>
@@ -6647,13 +6117,10 @@
       <c r="G29" s="5">
         <v>1962.5</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>35</v>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="4">
         <v>220.9</v>
@@ -6673,13 +6140,10 @@
       <c r="G30" s="5">
         <v>334.1</v>
       </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>36</v>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="4">
         <v>891.1</v>
@@ -6699,13 +6163,10 @@
       <c r="G31" s="5">
         <v>1281.7</v>
       </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>37</v>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="4">
         <v>2009</v>
@@ -6725,13 +6186,10 @@
       <c r="G32" s="5">
         <v>2035.06</v>
       </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>38</v>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="4">
         <v>1593.6</v>
@@ -6751,13 +6209,10 @@
       <c r="G33" s="5">
         <v>4169.5600000000004</v>
       </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>39</v>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="4">
         <v>280.60000000000002</v>
@@ -6777,34 +6232,28 @@
       <c r="G34" s="5">
         <v>812.29</v>
       </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="7">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6">
         <v>1954.2</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>2889</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>2453.3000000000002</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>3412</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>3033.36</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>1993.39</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6818,47 +6267,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4E451C-2F6D-4727-8B21-977BE6C35BDA}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>114.46</v>
@@ -6878,13 +6324,10 @@
       <c r="G2" s="5">
         <v>127.87</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>121.32</v>
@@ -6904,13 +6347,10 @@
       <c r="G3" s="5">
         <v>104.66</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>81.17</v>
@@ -6930,13 +6370,10 @@
       <c r="G4" s="5">
         <v>111.63</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>41.65</v>
@@ -6956,13 +6393,10 @@
       <c r="G5" s="5">
         <v>83.95</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>88.64</v>
@@ -6982,13 +6416,10 @@
       <c r="G6" s="5">
         <v>107.74</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>22.86</v>
@@ -7008,13 +6439,10 @@
       <c r="G7" s="5">
         <v>67.8</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>61.2</v>
@@ -7034,13 +6462,10 @@
       <c r="G8" s="5">
         <v>60.89</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>73.95</v>
@@ -7060,13 +6485,10 @@
       <c r="G9" s="5">
         <v>62.88</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4">
         <v>94.59</v>
@@ -7086,13 +6508,10 @@
       <c r="G10" s="5">
         <v>136.61000000000001</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>64.03</v>
@@ -7112,13 +6531,10 @@
       <c r="G11" s="5">
         <v>133.52000000000001</v>
       </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4">
         <v>146.25</v>
@@ -7138,13 +6554,10 @@
       <c r="G12" s="5">
         <v>145.66</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4">
         <v>72.88</v>
@@ -7164,13 +6577,10 @@
       <c r="G13" s="5">
         <v>73.599999999999994</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4">
         <v>84.52</v>
@@ -7190,13 +6600,10 @@
       <c r="G14" s="5">
         <v>97.05</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
         <v>63.13</v>
@@ -7216,13 +6623,10 @@
       <c r="G15" s="5">
         <v>82.06</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
         <v>97.32</v>
@@ -7242,13 +6646,10 @@
       <c r="G16" s="5">
         <v>96.85</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4">
         <v>115.41</v>
@@ -7268,13 +6669,10 @@
       <c r="G17" s="5">
         <v>116.56</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4">
         <v>76.58</v>
@@ -7294,13 +6692,10 @@
       <c r="G18" s="5">
         <v>93.73</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4">
         <v>12.07</v>
@@ -7320,13 +6715,10 @@
       <c r="G19" s="5">
         <v>51.58</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4">
         <v>29.98</v>
@@ -7346,13 +6738,10 @@
       <c r="G20" s="5">
         <v>25.73</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4">
         <v>22.24</v>
@@ -7372,13 +6761,10 @@
       <c r="G21" s="5">
         <v>45.72</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4">
         <v>63.47</v>
@@ -7398,13 +6784,10 @@
       <c r="G22" s="5">
         <v>85.74</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4">
         <v>60</v>
@@ -7424,13 +6807,10 @@
       <c r="G23" s="5">
         <v>60.4</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -7450,13 +6830,10 @@
       <c r="G24" s="5">
         <v>67.709999999999994</v>
       </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4">
         <v>87.2</v>
@@ -7476,13 +6853,10 @@
       <c r="G25" s="5">
         <v>84.57</v>
       </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4">
         <v>64.41</v>
@@ -7502,13 +6876,10 @@
       <c r="G26" s="5">
         <v>74.34</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4">
         <v>83.18</v>
@@ -7528,13 +6899,10 @@
       <c r="G27" s="5">
         <v>68.86</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4">
         <v>29.78</v>
@@ -7554,13 +6922,10 @@
       <c r="G28" s="5">
         <v>29.73</v>
       </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4">
         <v>32.01</v>
@@ -7580,13 +6945,10 @@
       <c r="G29" s="5">
         <v>44.55</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4">
         <v>42.43</v>
@@ -7606,13 +6968,10 @@
       <c r="G30" s="5">
         <v>12.58</v>
       </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="4">
         <v>37.549999999999997</v>
@@ -7632,13 +6991,10 @@
       <c r="G31" s="5">
         <v>46.94</v>
       </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4">
         <v>16.149999999999999</v>
@@ -7658,13 +7014,10 @@
       <c r="G32" s="5">
         <v>40.68</v>
       </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4">
         <v>10.59</v>
@@ -7684,34 +7037,28 @@
       <c r="G33" s="5">
         <v>30.17</v>
       </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="7">
+        <v>39</v>
+      </c>
+      <c r="B34" s="6">
         <v>42.21</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>68.45</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>61.95</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>65.739999999999995</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>59.47</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>66.650000000000006</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Cabai/Cabai.xlsx
+++ b/Cabai/Cabai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BigProject\Cabai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971DBB07-6D59-45BB-9E86-DD6B02C4464A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A54FF-CDBA-42DD-8B16-FBC570A79DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Luas Panen Cabai" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Produktivitas Cabai" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="luas_panen">Table2[#All]</definedName>
-    <definedName name="produksi">Table3[#All]</definedName>
-    <definedName name="produktivitas">Table5[#All]</definedName>
+    <definedName name="luas_panen">LuasPanen_Cabai[#All]</definedName>
+    <definedName name="produksi">Produksi_Cabai[#All]</definedName>
+    <definedName name="produktivitas">Produktivitas_Cabai[#All]</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1505,7 +1505,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F8D1403-7508-497A-93E7-24297CF641C6}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F8D1403-7508-497A-93E7-24297CF641C6}" name="LuasPanen_Cabai" displayName="LuasPanen_Cabai" ref="A1:G35" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:G35" xr:uid="{8F8D1403-7508-497A-93E7-24297CF641C6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BD646E5E-A0A9-4162-96E2-996CCB2D9613}" name="Lokasi" dataDxfId="30"/>
@@ -1521,7 +1521,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DE1E964-AA7B-45D4-83C4-8DA10B7EDA6B}" name="Table3" displayName="Table3" ref="A1:G35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DE1E964-AA7B-45D4-83C4-8DA10B7EDA6B}" name="Produksi_Cabai" displayName="Produksi_Cabai" ref="A1:G35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:G35" xr:uid="{0DE1E964-AA7B-45D4-83C4-8DA10B7EDA6B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AD630EDC-2252-4273-88CF-4B314CA9F6B6}" name="Lokasi" dataDxfId="18"/>
@@ -1537,7 +1537,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0BEA1A-ACB2-4835-99E2-D97845930B87}" name="Table5" displayName="Table5" ref="A1:G34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E0BEA1A-ACB2-4835-99E2-D97845930B87}" name="Produktivitas_Cabai" displayName="Produktivitas_Cabai" ref="A1:G34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G34" xr:uid="{0E0BEA1A-ACB2-4835-99E2-D97845930B87}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{728EA918-46D2-4F49-A3F6-4CF057EF1D15}" name="Lokasi" dataDxfId="6"/>
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M245"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5441,7 +5441,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6269,8 +6269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4E451C-2F6D-4727-8B21-977BE6C35BDA}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
